--- a/Stability_Codebook.xlsx
+++ b/Stability_Codebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobelder/Documents/GitHub/TraitTestRetest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE65A99-0621-4441-8EAE-ADF35AC0B1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C42E162-DE5C-4448-9ECF-A3B36BCF2F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="500" windowWidth="27740" windowHeight="16940" xr2:uid="{A6A7A6EB-633B-6B40-A1B0-CA845A618035}"/>
   </bookViews>
@@ -36,12 +36,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Variable</t>
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>traits</t>
+  </si>
+  <si>
+    <t>Trait names</t>
+  </si>
+  <si>
+    <t>valence</t>
+  </si>
+  <si>
+    <t>positive or negative valence</t>
+  </si>
+  <si>
+    <t>confBT</t>
+  </si>
+  <si>
+    <t>average confidence per trait</t>
+  </si>
+  <si>
+    <t>subID</t>
+  </si>
+  <si>
+    <t>subject ID</t>
+  </si>
+  <si>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t>Self-Concept Clarity</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Rosenberg Self-Esteem</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Dialectical Self-Views</t>
+  </si>
+  <si>
+    <t>CESD</t>
+  </si>
+  <si>
+    <t>Depressive Symptoms</t>
+  </si>
+  <si>
+    <t>SWLS</t>
+  </si>
+  <si>
+    <t>Satisfaction with Life</t>
+  </si>
+  <si>
+    <t>MAIA</t>
+  </si>
+  <si>
+    <t>Interoceptive Awareness</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>confidence quadratic</t>
+  </si>
+  <si>
+    <t>desirability</t>
+  </si>
+  <si>
+    <t>normative desirability</t>
+  </si>
+  <si>
+    <t>prevalence</t>
+  </si>
+  <si>
+    <t>normative prevalence</t>
+  </si>
+  <si>
+    <t>Idx</t>
+  </si>
+  <si>
+    <t>trait id code</t>
+  </si>
+  <si>
+    <t>selfRespT1</t>
+  </si>
+  <si>
+    <t>self-evaluation at T1</t>
+  </si>
+  <si>
+    <t>selfRespT2</t>
+  </si>
+  <si>
+    <t>self-evaluation at T2</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>"_T1" denotes collected at Time 1, "_T2" denotes collected at Time 2, and "_C" denotes averaged timepoints together</t>
+  </si>
+  <si>
+    <t>diffScore</t>
+  </si>
+  <si>
+    <t>T2 - T1 self-evaluation</t>
+  </si>
+  <si>
+    <t>absDS</t>
+  </si>
+  <si>
+    <t>absolute diffScore</t>
+  </si>
+  <si>
+    <t>SocialPos</t>
+  </si>
+  <si>
+    <t>How negative or positive were your social experiences since the last time you participated in the study?</t>
+  </si>
+  <si>
+    <t>WorkPos</t>
+  </si>
+  <si>
+    <t>How negative or positive were your work experiences since the last time you participated in the study?</t>
+  </si>
+  <si>
+    <t>SchoolPos</t>
+  </si>
+  <si>
+    <t>How negative or positive were your school experiences since the last time you participated in the study?</t>
+  </si>
+  <si>
+    <t>How negative or positive were all your experiences since the last time you participated in the study?</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>How impactful has the past week or two been? Impactful events or experiences may be events that alter you, your future behaviors, or how you see yourself or others.</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>To what extent do you "feel like a different person" now relative to one to two weeks ago?</t>
+  </si>
+  <si>
+    <t>Cont</t>
+  </si>
+  <si>
+    <t>How frequently do you contemplate who you are and how you define yourself?</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>How self-reflective do you consider yourself?</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>How introspective do you consider yourself?</t>
   </si>
 </sst>
 </file>
@@ -411,23 +576,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DA79C2-44EF-514A-81F2-EB0CBA562355}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="87.6640625" customWidth="1"/>
+    <col min="3" max="3" width="100.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
